--- a/Results/Sentiwordnet/beda-FOOD.xlsx
+++ b/Results/Sentiwordnet/beda-FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -43,12 +43,30 @@
     <t>1041457:3</t>
   </si>
   <si>
+    <t>1041457:4</t>
+  </si>
+  <si>
+    <t>1064477:0</t>
+  </si>
+  <si>
     <t>1074868:4</t>
   </si>
   <si>
+    <t>1086415:2</t>
+  </si>
+  <si>
     <t>1086478:1</t>
   </si>
   <si>
+    <t>1086478:4</t>
+  </si>
+  <si>
+    <t>1125006:3</t>
+  </si>
+  <si>
+    <t>1131595:3</t>
+  </si>
+  <si>
     <t>1145510:1</t>
   </si>
   <si>
@@ -64,6 +82,9 @@
     <t>1221938:0</t>
   </si>
   <si>
+    <t>1256373:1</t>
+  </si>
+  <si>
     <t>1269216:3</t>
   </si>
   <si>
@@ -82,6 +103,12 @@
     <t>1300636:3</t>
   </si>
   <si>
+    <t>1303984:1</t>
+  </si>
+  <si>
+    <t>1308557:1</t>
+  </si>
+  <si>
     <t>1328078:4</t>
   </si>
   <si>
@@ -91,6 +118,12 @@
     <t>1357554:0</t>
   </si>
   <si>
+    <t>1367358:1</t>
+  </si>
+  <si>
+    <t>1387314:2</t>
+  </si>
+  <si>
     <t>1394712:1</t>
   </si>
   <si>
@@ -100,12 +133,33 @@
     <t>1398844:7</t>
   </si>
   <si>
+    <t>1410878:1</t>
+  </si>
+  <si>
+    <t>1490757:2</t>
+  </si>
+  <si>
+    <t>1538149:0</t>
+  </si>
+  <si>
+    <t>404464:3</t>
+  </si>
+  <si>
     <t>426930:0</t>
   </si>
   <si>
     <t>565344:1</t>
   </si>
   <si>
+    <t>626269:3</t>
+  </si>
+  <si>
+    <t>751493:0</t>
+  </si>
+  <si>
+    <t>P#10:3</t>
+  </si>
+  <si>
     <t>BzG#2:1</t>
   </si>
   <si>
@@ -124,12 +178,30 @@
     <t>the only thing i moderately enjoyed was their grilled chicken special with edamame puree.</t>
   </si>
   <si>
+    <t>i had never had edamame pureed before but i thought it was innovative and tasty (could've used a bit more salt).</t>
+  </si>
+  <si>
+    <t>i tend to judge a sushi restaurant by its sea urchin, which was heavenly at sushi rose.</t>
+  </si>
+  <si>
     <t>the food was well prepared and the service impecable.</t>
   </si>
   <si>
+    <t>$6 and there is much tasty food, all of it fresh and continually refilled.</t>
+  </si>
+  <si>
     <t>i like the somosas, chai, and the chole, but the dhosas and dhal were kinda dissapointing.</t>
   </si>
   <si>
+    <t>also, specify if you like your food spicy- its rather bland if you don't.</t>
+  </si>
+  <si>
+    <t>my wife had the fried shrimp which are huge and loved it.</t>
+  </si>
+  <si>
+    <t>the food was bland oily.</t>
+  </si>
+  <si>
     <t>the pizza is yummy and i like the atmoshpere.</t>
   </si>
   <si>
@@ -145,6 +217,9 @@
     <t>the drinks are always welll made and wine selection is fairly priced.</t>
   </si>
   <si>
+    <t>fine dining restaurant quality.</t>
+  </si>
+  <si>
     <t>when i lived upstate for a while i would buy freeze the bagels and they would still be better than any else.</t>
   </si>
   <si>
@@ -163,6 +238,12 @@
     <t>other guests enjoyed pizza, santa fe chopped salad and fish and chips.</t>
   </si>
   <si>
+    <t>my chow fun and chow see was really bland and oily.</t>
+  </si>
+  <si>
+    <t>it's boring on the inside, and our sushi was pretty below average... the tuna was soggy and the other rolls had no flavor.</t>
+  </si>
+  <si>
     <t>we had pam's special fried fish and it was amazing.</t>
   </si>
   <si>
@@ -172,6 +253,12 @@
     <t>i started out with a bombay beer which was big enough for two.</t>
   </si>
   <si>
+    <t>the food is authentic italian - delicious!</t>
+  </si>
+  <si>
+    <t>the filet mignon dish was superb!</t>
+  </si>
+  <si>
     <t>we ordered some beef and noodle soup dishes from the thai section of the menu but nothing we got was thai.</t>
   </si>
   <si>
@@ -181,12 +268,33 @@
     <t>to be completely fair, the only redeeming factor was the food, which was above average, but couldn't make up for all the other deficiencies of teodora.</t>
   </si>
   <si>
+    <t>i've never had bad service and the fish is fresh and delicious.</t>
+  </si>
+  <si>
+    <t>the prices were cheap compared to the quality of service and food.</t>
+  </si>
+  <si>
+    <t>i found the food, service and value exceptional everytime i have been there.</t>
+  </si>
+  <si>
+    <t>i expected quite a bit more from such an expensive menu.</t>
+  </si>
+  <si>
     <t>authentic taiwanese food that's cheap... what more could you ask for?</t>
   </si>
   <si>
     <t>this little place definitely exceeded my expectations and you sure get a lot of food for your money.</t>
   </si>
   <si>
+    <t>bottles of wine are cheap and good.</t>
+  </si>
+  <si>
+    <t>i am relatively new to the area and tried pick a bgel on 2nd and was disappointed with the service and i thought the food was overated and on the pricey side.</t>
+  </si>
+  <si>
+    <t>and $11 for a plate of bland guacamole?</t>
+  </si>
+  <si>
     <t>the food is flavorful, plentiful and reasonably priced.</t>
   </si>
   <si>
@@ -202,12 +310,30 @@
     <t>averagethe</t>
   </si>
   <si>
+    <t>innovative|innovative</t>
+  </si>
+  <si>
+    <t>heavenly</t>
+  </si>
+  <si>
     <t>prepared|prepared</t>
   </si>
   <si>
+    <t>tasty</t>
+  </si>
+  <si>
     <t>dissapointing</t>
   </si>
   <si>
+    <t>bland|bland</t>
+  </si>
+  <si>
+    <t>fried|fried</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
     <t>yummy|yummy</t>
   </si>
   <si>
@@ -223,6 +349,9 @@
     <t>welll|welll|welll</t>
   </si>
   <si>
+    <t>fine</t>
+  </si>
+  <si>
     <t>upstate|better|upstate|better</t>
   </si>
   <si>
@@ -235,7 +364,10 @@
     <t>little|little|little</t>
   </si>
   <si>
-    <t>other</t>
+    <t>other|other</t>
+  </si>
+  <si>
+    <t>boring|boring|soggy|other|other</t>
   </si>
   <si>
     <t>simple|simple</t>
@@ -244,6 +376,12 @@
     <t>big|big</t>
   </si>
   <si>
+    <t>authentic|delicious</t>
+  </si>
+  <si>
+    <t>superb</t>
+  </si>
+  <si>
     <t>thai|thai</t>
   </si>
   <si>
@@ -253,10 +391,25 @@
     <t>above|above</t>
   </si>
   <si>
+    <t>bad|delicious</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
     <t>taiwanese</t>
   </si>
   <si>
     <t>little</t>
+  </si>
+  <si>
+    <t>pricey|pricey</t>
   </si>
   <si>
     <t>flavorful</t>
@@ -629,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,19 +816,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -686,19 +839,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -709,19 +862,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -732,19 +885,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -755,19 +908,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -778,19 +931,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -801,19 +954,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -824,19 +977,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -847,19 +1000,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -870,19 +1023,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -893,19 +1046,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -916,19 +1069,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -939,19 +1092,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -962,19 +1115,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -985,19 +1138,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1008,19 +1161,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1031,19 +1184,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1054,19 +1207,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1077,19 +1230,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1100,19 +1253,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1123,19 +1276,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1146,19 +1299,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1169,19 +1322,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1192,19 +1345,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1215,19 +1368,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1238,19 +1391,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1261,19 +1414,433 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
         <v>84</v>
       </c>
-      <c r="F28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
         <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
